--- a/StructureDefinition-mp4p-medicationstatement.xlsx
+++ b/StructureDefinition-mp4p-medicationstatement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-01T09:40:17+00:00</t>
+    <t>2021-12-01T11:34:04+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-mp4p-medicationstatement.xlsx
+++ b/StructureDefinition-mp4p-medicationstatement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-01T11:34:04+00:00</t>
+    <t>2021-12-06T15:13:20+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-mp4p-medicationstatement.xlsx
+++ b/StructureDefinition-mp4p-medicationstatement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-08T18:19:37+00:00</t>
+    <t>2021-12-09T19:18:46+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-mp4p-medicationstatement.xlsx
+++ b/StructureDefinition-mp4p-medicationstatement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2021-12-09T19:18:46+00:00</t>
+    <t>2022-01-05T14:37:11+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-mp4p-medicationstatement.xlsx
+++ b/StructureDefinition-mp4p-medicationstatement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-05T14:37:11+00:00</t>
+    <t>2022-01-05T14:53:01+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/StructureDefinition-mp4p-medicationstatement.xlsx
+++ b/StructureDefinition-mp4p-medicationstatement.xlsx
@@ -10,13 +10,13 @@
     <sheet name="Elements" r:id="rId4" sheetId="2"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$176</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="true">Elements!$A$1:$AN$175</definedName>
   </definedNames>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6383" uniqueCount="770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6345" uniqueCount="769">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-01-05T14:53:01+00:00</t>
+    <t>2022-05-24T10:16:42+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2186,6 +2186,10 @@
     <t>Plain text representation of the concept</t>
   </si>
   <si>
+    <t xml:space="preserve">Quantity
+</t>
+  </si>
+  <si>
     <t>doseQuantity</t>
   </si>
   <si>
@@ -2404,13 +2408,6 @@
   </si>
   <si>
     <t>M@du</t>
-  </si>
-  <si>
-    <t>doseRange</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Range
-</t>
   </si>
 </sst>
 </file>
@@ -2722,7 +2719,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AN176"/>
+  <dimension ref="A1:AN175"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -20598,7 +20595,7 @@
         <v>87</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>489</v>
+        <v>696</v>
       </c>
       <c r="K157" t="s" s="2">
         <v>490</v>
@@ -20687,12 +20684,12 @@
         <v>75</v>
       </c>
     </row>
-    <row r="158" hidden="true">
+    <row r="158">
       <c r="A158" t="s" s="2">
         <v>488</v>
       </c>
       <c r="B158" t="s" s="2">
-        <v>696</v>
+        <v>697</v>
       </c>
       <c r="C158" t="s" s="2">
         <v>75</v>
@@ -20705,7 +20702,7 @@
         <v>86</v>
       </c>
       <c r="G158" t="s" s="2">
-        <v>75</v>
+        <v>87</v>
       </c>
       <c r="H158" t="s" s="2">
         <v>75</v>
@@ -20717,13 +20714,13 @@
         <v>515</v>
       </c>
       <c r="K158" t="s" s="2">
-        <v>697</v>
+        <v>698</v>
       </c>
       <c r="L158" t="s" s="2">
-        <v>698</v>
+        <v>699</v>
       </c>
       <c r="M158" t="s" s="2">
-        <v>699</v>
+        <v>700</v>
       </c>
       <c r="N158" t="s" s="2">
         <v>493</v>
@@ -20784,22 +20781,22 @@
         <v>86</v>
       </c>
       <c r="AH158" t="s" s="2">
-        <v>700</v>
+        <v>701</v>
       </c>
       <c r="AI158" t="s" s="2">
-        <v>701</v>
+        <v>702</v>
       </c>
       <c r="AJ158" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AK158" t="s" s="2">
-        <v>702</v>
+        <v>703</v>
       </c>
       <c r="AL158" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM158" t="s" s="2">
-        <v>703</v>
+        <v>704</v>
       </c>
       <c r="AN158" t="s" s="2">
         <v>75</v>
@@ -20807,7 +20804,7 @@
     </row>
     <row r="159" hidden="true">
       <c r="A159" t="s" s="2">
-        <v>704</v>
+        <v>705</v>
       </c>
       <c r="B159" s="2"/>
       <c r="C159" t="s" s="2">
@@ -20919,7 +20916,7 @@
     </row>
     <row r="160" hidden="true">
       <c r="A160" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B160" s="2"/>
       <c r="C160" t="s" s="2">
@@ -21033,10 +21030,10 @@
     </row>
     <row r="161">
       <c r="A161" t="s" s="2">
-        <v>705</v>
+        <v>706</v>
       </c>
       <c r="B161" t="s" s="2">
-        <v>706</v>
+        <v>707</v>
       </c>
       <c r="C161" t="s" s="2">
         <v>75</v>
@@ -21058,13 +21055,13 @@
         <v>75</v>
       </c>
       <c r="J161" t="s" s="2">
-        <v>707</v>
+        <v>708</v>
       </c>
       <c r="K161" t="s" s="2">
-        <v>708</v>
+        <v>709</v>
       </c>
       <c r="L161" t="s" s="2">
-        <v>709</v>
+        <v>710</v>
       </c>
       <c r="M161" s="2"/>
       <c r="N161" s="2"/>
@@ -21147,7 +21144,7 @@
     </row>
     <row r="162" hidden="true">
       <c r="A162" t="s" s="2">
-        <v>710</v>
+        <v>711</v>
       </c>
       <c r="B162" s="2"/>
       <c r="C162" t="s" s="2">
@@ -21259,7 +21256,7 @@
     </row>
     <row r="163" hidden="true">
       <c r="A163" t="s" s="2">
-        <v>711</v>
+        <v>712</v>
       </c>
       <c r="B163" s="2"/>
       <c r="C163" t="s" s="2">
@@ -21285,10 +21282,10 @@
         <v>106</v>
       </c>
       <c r="K163" t="s" s="2">
-        <v>712</v>
+        <v>713</v>
       </c>
       <c r="L163" t="s" s="2">
-        <v>713</v>
+        <v>714</v>
       </c>
       <c r="M163" s="2"/>
       <c r="N163" s="2"/>
@@ -21371,7 +21368,7 @@
     </row>
     <row r="164" hidden="true">
       <c r="A164" t="s" s="2">
-        <v>714</v>
+        <v>715</v>
       </c>
       <c r="B164" s="2"/>
       <c r="C164" t="s" s="2">
@@ -21397,13 +21394,13 @@
         <v>128</v>
       </c>
       <c r="K164" t="s" s="2">
-        <v>715</v>
+        <v>716</v>
       </c>
       <c r="L164" t="s" s="2">
-        <v>716</v>
+        <v>717</v>
       </c>
       <c r="M164" t="s" s="2">
-        <v>717</v>
+        <v>718</v>
       </c>
       <c r="N164" s="2"/>
       <c r="O164" t="s" s="2">
@@ -21411,7 +21408,7 @@
       </c>
       <c r="P164" s="2"/>
       <c r="Q164" t="s" s="2">
-        <v>718</v>
+        <v>719</v>
       </c>
       <c r="R164" t="s" s="2">
         <v>75</v>
@@ -21453,7 +21450,7 @@
         <v>75</v>
       </c>
       <c r="AE164" t="s" s="2">
-        <v>719</v>
+        <v>720</v>
       </c>
       <c r="AF164" t="s" s="2">
         <v>86</v>
@@ -21485,7 +21482,7 @@
     </row>
     <row r="165" hidden="true">
       <c r="A165" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B165" s="2"/>
       <c r="C165" t="s" s="2">
@@ -21511,10 +21508,10 @@
         <v>88</v>
       </c>
       <c r="K165" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="L165" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="M165" s="2"/>
       <c r="N165" s="2"/>
@@ -21563,7 +21560,7 @@
         <v>248</v>
       </c>
       <c r="AE165" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="AF165" t="s" s="2">
         <v>76</v>
@@ -21595,10 +21592,10 @@
     </row>
     <row r="166" hidden="true">
       <c r="A166" t="s" s="2">
-        <v>720</v>
+        <v>721</v>
       </c>
       <c r="B166" t="s" s="2">
-        <v>724</v>
+        <v>725</v>
       </c>
       <c r="C166" t="s" s="2">
         <v>75</v>
@@ -21623,10 +21620,10 @@
         <v>88</v>
       </c>
       <c r="K166" t="s" s="2">
-        <v>721</v>
+        <v>722</v>
       </c>
       <c r="L166" t="s" s="2">
-        <v>722</v>
+        <v>723</v>
       </c>
       <c r="M166" s="2"/>
       <c r="N166" s="2"/>
@@ -21677,7 +21674,7 @@
         <v>75</v>
       </c>
       <c r="AE166" t="s" s="2">
-        <v>723</v>
+        <v>724</v>
       </c>
       <c r="AF166" t="s" s="2">
         <v>76</v>
@@ -21704,12 +21701,12 @@
         <v>75</v>
       </c>
       <c r="AN166" t="s" s="2">
-        <v>725</v>
+        <v>726</v>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="s" s="2">
-        <v>726</v>
+        <v>727</v>
       </c>
       <c r="B167" s="2"/>
       <c r="C167" t="s" s="2">
@@ -21735,16 +21732,16 @@
         <v>571</v>
       </c>
       <c r="K167" t="s" s="2">
-        <v>727</v>
+        <v>728</v>
       </c>
       <c r="L167" t="s" s="2">
-        <v>728</v>
+        <v>729</v>
       </c>
       <c r="M167" t="s" s="2">
-        <v>729</v>
+        <v>730</v>
       </c>
       <c r="N167" t="s" s="2">
-        <v>730</v>
+        <v>731</v>
       </c>
       <c r="O167" t="s" s="2">
         <v>75</v>
@@ -21793,7 +21790,7 @@
         <v>75</v>
       </c>
       <c r="AE167" t="s" s="2">
-        <v>731</v>
+        <v>732</v>
       </c>
       <c r="AF167" t="s" s="2">
         <v>76</v>
@@ -21811,13 +21808,13 @@
         <v>75</v>
       </c>
       <c r="AK167" t="s" s="2">
-        <v>732</v>
+        <v>733</v>
       </c>
       <c r="AL167" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM167" t="s" s="2">
-        <v>733</v>
+        <v>734</v>
       </c>
       <c r="AN167" t="s" s="2">
         <v>75</v>
@@ -21825,7 +21822,7 @@
     </row>
     <row r="168" hidden="true">
       <c r="A168" t="s" s="2">
-        <v>734</v>
+        <v>735</v>
       </c>
       <c r="B168" s="2"/>
       <c r="C168" t="s" s="2">
@@ -21851,20 +21848,20 @@
         <v>162</v>
       </c>
       <c r="K168" t="s" s="2">
-        <v>735</v>
+        <v>736</v>
       </c>
       <c r="L168" t="s" s="2">
-        <v>736</v>
+        <v>737</v>
       </c>
       <c r="M168" s="2"/>
       <c r="N168" t="s" s="2">
-        <v>737</v>
+        <v>738</v>
       </c>
       <c r="O168" t="s" s="2">
         <v>75</v>
       </c>
       <c r="P168" t="s" s="2">
-        <v>738</v>
+        <v>739</v>
       </c>
       <c r="Q168" t="s" s="2">
         <v>75</v>
@@ -21888,10 +21885,10 @@
         <v>220</v>
       </c>
       <c r="X168" t="s" s="2">
-        <v>739</v>
+        <v>740</v>
       </c>
       <c r="Y168" t="s" s="2">
-        <v>740</v>
+        <v>741</v>
       </c>
       <c r="Z168" t="s" s="2">
         <v>75</v>
@@ -21909,7 +21906,7 @@
         <v>75</v>
       </c>
       <c r="AE168" t="s" s="2">
-        <v>741</v>
+        <v>742</v>
       </c>
       <c r="AF168" t="s" s="2">
         <v>76</v>
@@ -21927,13 +21924,13 @@
         <v>75</v>
       </c>
       <c r="AK168" t="s" s="2">
-        <v>742</v>
+        <v>743</v>
       </c>
       <c r="AL168" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM168" t="s" s="2">
-        <v>743</v>
+        <v>744</v>
       </c>
       <c r="AN168" t="s" s="2">
         <v>75</v>
@@ -21941,7 +21938,7 @@
     </row>
     <row r="169">
       <c r="A169" t="s" s="2">
-        <v>744</v>
+        <v>745</v>
       </c>
       <c r="B169" s="2"/>
       <c r="C169" t="s" s="2">
@@ -21967,14 +21964,14 @@
         <v>88</v>
       </c>
       <c r="K169" t="s" s="2">
-        <v>745</v>
+        <v>746</v>
       </c>
       <c r="L169" t="s" s="2">
-        <v>746</v>
+        <v>747</v>
       </c>
       <c r="M169" s="2"/>
       <c r="N169" t="s" s="2">
-        <v>747</v>
+        <v>748</v>
       </c>
       <c r="O169" t="s" s="2">
         <v>75</v>
@@ -22023,7 +22020,7 @@
         <v>75</v>
       </c>
       <c r="AE169" t="s" s="2">
-        <v>748</v>
+        <v>749</v>
       </c>
       <c r="AF169" t="s" s="2">
         <v>76</v>
@@ -22041,13 +22038,13 @@
         <v>75</v>
       </c>
       <c r="AK169" t="s" s="2">
-        <v>749</v>
+        <v>750</v>
       </c>
       <c r="AL169" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM169" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="AN169" t="s" s="2">
         <v>75</v>
@@ -22055,7 +22052,7 @@
     </row>
     <row r="170">
       <c r="A170" t="s" s="2">
-        <v>751</v>
+        <v>752</v>
       </c>
       <c r="B170" s="2"/>
       <c r="C170" t="s" s="2">
@@ -22081,21 +22078,21 @@
         <v>128</v>
       </c>
       <c r="K170" t="s" s="2">
-        <v>752</v>
+        <v>753</v>
       </c>
       <c r="L170" t="s" s="2">
-        <v>753</v>
+        <v>754</v>
       </c>
       <c r="M170" s="2"/>
       <c r="N170" t="s" s="2">
-        <v>754</v>
+        <v>755</v>
       </c>
       <c r="O170" t="s" s="2">
         <v>75</v>
       </c>
       <c r="P170" s="2"/>
       <c r="Q170" t="s" s="2">
-        <v>755</v>
+        <v>756</v>
       </c>
       <c r="R170" t="s" s="2">
         <v>75</v>
@@ -22137,7 +22134,7 @@
         <v>75</v>
       </c>
       <c r="AE170" t="s" s="2">
-        <v>756</v>
+        <v>757</v>
       </c>
       <c r="AF170" t="s" s="2">
         <v>76</v>
@@ -22146,7 +22143,7 @@
         <v>86</v>
       </c>
       <c r="AH170" t="s" s="2">
-        <v>757</v>
+        <v>758</v>
       </c>
       <c r="AI170" t="s" s="2">
         <v>98</v>
@@ -22155,13 +22152,13 @@
         <v>75</v>
       </c>
       <c r="AK170" t="s" s="2">
-        <v>758</v>
+        <v>759</v>
       </c>
       <c r="AL170" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM170" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="AN170" t="s" s="2">
         <v>75</v>
@@ -22169,7 +22166,7 @@
     </row>
     <row r="171">
       <c r="A171" t="s" s="2">
-        <v>759</v>
+        <v>760</v>
       </c>
       <c r="B171" s="2"/>
       <c r="C171" t="s" s="2">
@@ -22195,16 +22192,16 @@
         <v>162</v>
       </c>
       <c r="K171" t="s" s="2">
-        <v>760</v>
+        <v>761</v>
       </c>
       <c r="L171" t="s" s="2">
-        <v>761</v>
+        <v>762</v>
       </c>
       <c r="M171" t="s" s="2">
-        <v>762</v>
+        <v>763</v>
       </c>
       <c r="N171" t="s" s="2">
-        <v>763</v>
+        <v>764</v>
       </c>
       <c r="O171" t="s" s="2">
         <v>75</v>
@@ -22233,7 +22230,7 @@
       </c>
       <c r="X171" s="2"/>
       <c r="Y171" t="s" s="2">
-        <v>764</v>
+        <v>765</v>
       </c>
       <c r="Z171" t="s" s="2">
         <v>75</v>
@@ -22251,7 +22248,7 @@
         <v>75</v>
       </c>
       <c r="AE171" t="s" s="2">
-        <v>765</v>
+        <v>766</v>
       </c>
       <c r="AF171" t="s" s="2">
         <v>76</v>
@@ -22269,25 +22266,23 @@
         <v>75</v>
       </c>
       <c r="AK171" t="s" s="2">
-        <v>766</v>
+        <v>767</v>
       </c>
       <c r="AL171" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM171" t="s" s="2">
-        <v>750</v>
+        <v>751</v>
       </c>
       <c r="AN171" t="s" s="2">
-        <v>767</v>
+        <v>768</v>
       </c>
     </row>
     <row r="172" hidden="true">
       <c r="A172" t="s" s="2">
-        <v>488</v>
-      </c>
-      <c r="B172" t="s" s="2">
-        <v>768</v>
-      </c>
+        <v>496</v>
+      </c>
+      <c r="B172" s="2"/>
       <c r="C172" t="s" s="2">
         <v>75</v>
       </c>
@@ -22296,7 +22291,7 @@
         <v>76</v>
       </c>
       <c r="F172" t="s" s="2">
-        <v>86</v>
+        <v>76</v>
       </c>
       <c r="G172" t="s" s="2">
         <v>75</v>
@@ -22308,19 +22303,19 @@
         <v>87</v>
       </c>
       <c r="J172" t="s" s="2">
-        <v>769</v>
+        <v>497</v>
       </c>
       <c r="K172" t="s" s="2">
-        <v>490</v>
+        <v>498</v>
       </c>
       <c r="L172" t="s" s="2">
-        <v>491</v>
+        <v>499</v>
       </c>
       <c r="M172" t="s" s="2">
-        <v>492</v>
+        <v>500</v>
       </c>
       <c r="N172" t="s" s="2">
-        <v>493</v>
+        <v>501</v>
       </c>
       <c r="O172" t="s" s="2">
         <v>75</v>
@@ -22369,7 +22364,7 @@
         <v>75</v>
       </c>
       <c r="AE172" t="s" s="2">
-        <v>494</v>
+        <v>502</v>
       </c>
       <c r="AF172" t="s" s="2">
         <v>76</v>
@@ -22387,13 +22382,13 @@
         <v>75</v>
       </c>
       <c r="AK172" t="s" s="2">
-        <v>470</v>
+        <v>503</v>
       </c>
       <c r="AL172" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM172" t="s" s="2">
-        <v>495</v>
+        <v>504</v>
       </c>
       <c r="AN172" t="s" s="2">
         <v>75</v>
@@ -22401,7 +22396,7 @@
     </row>
     <row r="173" hidden="true">
       <c r="A173" t="s" s="2">
-        <v>496</v>
+        <v>505</v>
       </c>
       <c r="B173" s="2"/>
       <c r="C173" t="s" s="2">
@@ -22424,19 +22419,19 @@
         <v>87</v>
       </c>
       <c r="J173" t="s" s="2">
-        <v>497</v>
+        <v>506</v>
       </c>
       <c r="K173" t="s" s="2">
-        <v>498</v>
+        <v>507</v>
       </c>
       <c r="L173" t="s" s="2">
-        <v>499</v>
+        <v>508</v>
       </c>
       <c r="M173" t="s" s="2">
-        <v>500</v>
+        <v>509</v>
       </c>
       <c r="N173" t="s" s="2">
-        <v>501</v>
+        <v>510</v>
       </c>
       <c r="O173" t="s" s="2">
         <v>75</v>
@@ -22485,7 +22480,7 @@
         <v>75</v>
       </c>
       <c r="AE173" t="s" s="2">
-        <v>502</v>
+        <v>511</v>
       </c>
       <c r="AF173" t="s" s="2">
         <v>76</v>
@@ -22503,13 +22498,13 @@
         <v>75</v>
       </c>
       <c r="AK173" t="s" s="2">
-        <v>503</v>
+        <v>512</v>
       </c>
       <c r="AL173" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM173" t="s" s="2">
-        <v>504</v>
+        <v>513</v>
       </c>
       <c r="AN173" t="s" s="2">
         <v>75</v>
@@ -22517,7 +22512,7 @@
     </row>
     <row r="174" hidden="true">
       <c r="A174" t="s" s="2">
-        <v>505</v>
+        <v>514</v>
       </c>
       <c r="B174" s="2"/>
       <c r="C174" t="s" s="2">
@@ -22540,19 +22535,19 @@
         <v>87</v>
       </c>
       <c r="J174" t="s" s="2">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="K174" t="s" s="2">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="L174" t="s" s="2">
-        <v>508</v>
+        <v>517</v>
       </c>
       <c r="M174" t="s" s="2">
-        <v>509</v>
+        <v>518</v>
       </c>
       <c r="N174" t="s" s="2">
-        <v>510</v>
+        <v>519</v>
       </c>
       <c r="O174" t="s" s="2">
         <v>75</v>
@@ -22601,7 +22596,7 @@
         <v>75</v>
       </c>
       <c r="AE174" t="s" s="2">
-        <v>511</v>
+        <v>520</v>
       </c>
       <c r="AF174" t="s" s="2">
         <v>76</v>
@@ -22619,13 +22614,13 @@
         <v>75</v>
       </c>
       <c r="AK174" t="s" s="2">
-        <v>512</v>
+        <v>521</v>
       </c>
       <c r="AL174" t="s" s="2">
         <v>75</v>
       </c>
       <c r="AM174" t="s" s="2">
-        <v>513</v>
+        <v>75</v>
       </c>
       <c r="AN174" t="s" s="2">
         <v>75</v>
@@ -22633,7 +22628,7 @@
     </row>
     <row r="175" hidden="true">
       <c r="A175" t="s" s="2">
-        <v>514</v>
+        <v>522</v>
       </c>
       <c r="B175" s="2"/>
       <c r="C175" t="s" s="2">
@@ -22659,16 +22654,14 @@
         <v>515</v>
       </c>
       <c r="K175" t="s" s="2">
-        <v>516</v>
+        <v>523</v>
       </c>
       <c r="L175" t="s" s="2">
-        <v>517</v>
-      </c>
-      <c r="M175" t="s" s="2">
-        <v>518</v>
-      </c>
+        <v>524</v>
+      </c>
+      <c r="M175" s="2"/>
       <c r="N175" t="s" s="2">
-        <v>519</v>
+        <v>525</v>
       </c>
       <c r="O175" t="s" s="2">
         <v>75</v>
@@ -22717,7 +22710,7 @@
         <v>75</v>
       </c>
       <c r="AE175" t="s" s="2">
-        <v>520</v>
+        <v>526</v>
       </c>
       <c r="AF175" t="s" s="2">
         <v>76</v>
@@ -22747,122 +22740,8 @@
         <v>75</v>
       </c>
     </row>
-    <row r="176" hidden="true">
-      <c r="A176" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="B176" s="2"/>
-      <c r="C176" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="D176" s="2"/>
-      <c r="E176" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="F176" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="G176" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="H176" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="I176" t="s" s="2">
-        <v>87</v>
-      </c>
-      <c r="J176" t="s" s="2">
-        <v>515</v>
-      </c>
-      <c r="K176" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="L176" t="s" s="2">
-        <v>524</v>
-      </c>
-      <c r="M176" s="2"/>
-      <c r="N176" t="s" s="2">
-        <v>525</v>
-      </c>
-      <c r="O176" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="P176" s="2"/>
-      <c r="Q176" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="R176" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="S176" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="T176" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="U176" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="V176" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="W176" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="X176" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Y176" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="Z176" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AA176" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AB176" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AC176" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AD176" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AE176" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="AF176" t="s" s="2">
-        <v>76</v>
-      </c>
-      <c r="AG176" t="s" s="2">
-        <v>86</v>
-      </c>
-      <c r="AH176" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AI176" t="s" s="2">
-        <v>98</v>
-      </c>
-      <c r="AJ176" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AK176" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="AL176" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AM176" t="s" s="2">
-        <v>75</v>
-      </c>
-      <c r="AN176" t="s" s="2">
-        <v>75</v>
-      </c>
-    </row>
   </sheetData>
-  <autoFilter ref="A1:AN176">
+  <autoFilter ref="A1:AN175">
     <filterColumn colId="6">
       <customFilters>
         <customFilter operator="notEqual" val=" "/>
@@ -22872,7 +22751,7 @@
       <filters blank="true"/>
     </filterColumn>
   </autoFilter>
-  <conditionalFormatting sqref="A2:AI175">
+  <conditionalFormatting sqref="A2:AI174">
     <cfRule type="expression" dxfId="0" priority="1">
       <formula>$G2&lt;&gt;"Y"</formula>
     </cfRule>

--- a/StructureDefinition-mp4p-medicationstatement.xlsx
+++ b/StructureDefinition-mp4p-medicationstatement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-05-24T10:16:42+00:00</t>
+    <t>2022-09-05T15:28:19+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2207,7 +2207,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}dqty-1:null {$this.extension.where(url='https://www.charite.de/fhir/medikationsplan/Extension/freitext').exists() xor ($this.value.exists() and $this.unit.exists() and $this.system.exists() and $this.code.exists())}</t>
+qty-3:If a code for the unit is present, the system SHALL also be present {code.empty() or system.exists()}sqty-1:The comparator is not used on a SimpleQuantity {comparator.empty()}dqty-1:Die Dosierung muss strukturiert oder als Freitext angegeben werden. {$this.extension.where(url='https://www.charite.de/fhir/medikationsplan/Extension/freitext').exists() xor ($this.value.exists() and $this.unit.exists() and $this.system.exists() and $this.code.exists())}</t>
   </si>
   <si>
     <t>PQ, IVL&lt;PQ&gt;, MO, CO, depending on the values</t>

--- a/StructureDefinition-mp4p-medicationstatement.xlsx
+++ b/StructureDefinition-mp4p-medicationstatement.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2022-11-28T18:22:11+00:00</t>
+    <t>2022-11-28T18:36:43+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
